--- a/medicine/Psychotrope/Gluconobacter/Gluconobacter.xlsx
+++ b/medicine/Psychotrope/Gluconobacter/Gluconobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gluconobacter est l'un des genres de bactéries acétiques. Il regroupe une quinzaine d'espèces.
-L'espèce type est Gluconobacter oxydans[1]. Elle est responsable d'une pourriture molle bactérienne sur certains fruits mûrs[2].
+L'espèce type est Gluconobacter oxydans. Elle est responsable d'une pourriture molle bactérienne sur certains fruits mûrs.
 </t>
         </is>
       </c>
@@ -512,20 +524,22 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les espèces attribuées au genre Gluconobacter, on identifie en 2022[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parmi les espèces attribuées au genre Gluconobacter, on identifie en 2022 :
 Gluconobacter aidae Yukphan et al. 2020
 Gluconobacter albidus (Kondo &amp; Ameyama 1958) Yukphan et al. 2005
 Gluconobacter cadivus Sombolestani et al. 2021
-Gluconobacter cerevisiae[4] Spitaels et al. 2014
+Gluconobacter cerevisiae Spitaels et al. 2014
 Gluconobacter cerinus (Asai 1935) Yamada and Akita 1984 ; syn.  Gluconobacter asaii
  Gluconobacter frateurii Mason and Claus 1989
 Gluconobacter japonicus Malimas et al. 2009 ; syn.  Gluconobacter nephelii
 Gluconobacter kanchanaburiensis Malimas et al. 2009
 Gluconobacter kondonii Malimas et al. 2008
 Gluconobacter morbifer Roh et al. 2019
-Gluconobacter oxydans[5] (Henneberg 1897) De Ley 1961 ; dyn. Gluconobacter uchimurae
+Gluconobacter oxydans (Henneberg 1897) De Ley 1961 ; dyn. Gluconobacter uchimurae
 Gluconobacter potus Sombolestani et al. 2021
 Gluconobacter roseus (Asai 1935) Malimas et al. 2008
 Gluconobacter sphaericus (Ameyama 1975) Malimas et al. 2008
@@ -559,9 +573,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (13 août 2014)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 août 2014) :
 Gluconobacter albidus
 Gluconobacter cerevisiae
 Gluconobacter cerinus
